--- a/5-FuncoesMercadoTrabalho/45. Função PROCH - Introdução - Material(1).xlsx
+++ b/5-FuncoesMercadoTrabalho/45. Função PROCH - Introdução - Material(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\Excel Impressionador 2021\Módulo 8 - Funções Mercado de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\5-FuncoesMercadoTrabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FFA0E6-0E35-49C9-AA08-2818B282F38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC9EF79-8B6B-4A89-94B0-AB1DD8CF0B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3D2557DA-CD0B-48AD-8EFD-8912689B8782}"/>
   </bookViews>
   <sheets>
     <sheet name="SEERRO" sheetId="2" r:id="rId1"/>
@@ -3433,9 +3433,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3473,7 +3473,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3579,7 +3579,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3721,7 +3721,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3733,14 +3733,14 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.77734375" customWidth="1"/>
+    <col min="1" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>32635</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>22529</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>33740</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>44566</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>16756</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>24899</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>25086</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>6318</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>15710</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>23626</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3979,13 +3979,13 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="12.5546875" customWidth="1"/>
+    <col min="1" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>Microsoft</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>75</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>91</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>92</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>95</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>99</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>102</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>104</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>105</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>107</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>108</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>109</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>110</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>111</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>112</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>113</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>114</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>115</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>116</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>117</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>118</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>119</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>120</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>121</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>122</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>123</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>124</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>125</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>127</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>128</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>129</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>130</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>131</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>132</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>133</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>134</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>135</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>136</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>137</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>138</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>139</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>140</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>141</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>142</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>143</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>144</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>145</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>146</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>147</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>148</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>149</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>150</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>151</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>152</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>153</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>154</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>155</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>156</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>157</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>158</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>159</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>160</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>161</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>162</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>163</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>164</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>165</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>166</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>167</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>168</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>169</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>170</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>171</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>172</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>173</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>174</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>175</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>176</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>177</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>178</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>179</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>180</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>181</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>182</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>183</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>184</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>185</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>186</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>187</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>188</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>189</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>190</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>191</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>192</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>193</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>194</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>195</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>196</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>197</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>198</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>199</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>200</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>201</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>202</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>203</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>204</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>205</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>206</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>207</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>208</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>209</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>210</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>211</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>212</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>213</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>214</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>215</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>216</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>217</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>218</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>219</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>220</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>221</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>222</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>223</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>224</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>225</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>226</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>227</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>228</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>229</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>230</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>231</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>232</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>233</v>
       </c>
@@ -8168,19 +8168,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FEF772-DFD0-4036-8B65-DBF82BF00CE4}">
   <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -8209,7 +8211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
@@ -8238,7 +8240,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -8267,7 +8269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -8296,7 +8298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
@@ -8328,41 +8330,42 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f>HLOOKUP(C8,2:6,3,0)</f>
-        <v>Preta</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+        <f>HLOOKUP(C8, B2:J6, 3, 0)</f>
+        <v>Amarela</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="1">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2">
-        <v>22529</v>
+        <f>HLOOKUP(C11, B3:J6, 4, 0)</f>
+        <v>11555</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{7EC37ED9-4858-4A6D-A6B7-E3E6EE305B5F}">
       <formula1>$C$2:$J$2</formula1>
     </dataValidation>
